--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="SubscribeNewsletter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Valid Username</t>
   </si>
@@ -66,16 +67,66 @@
   </si>
   <si>
     <t xml:space="preserve">Password123 </t>
+  </si>
+  <si>
+    <t>Ime</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>InvalidEmail</t>
+  </si>
+  <si>
+    <t>Darko</t>
+  </si>
+  <si>
+    <t>darko@gmail.com</t>
+  </si>
+  <si>
+    <t>darko.gmail.com</t>
+  </si>
+  <si>
+    <t>darko@gmail</t>
+  </si>
+  <si>
+    <t>darko@gmail.c</t>
+  </si>
+  <si>
+    <t>darko@gmailcom</t>
+  </si>
+  <si>
+    <t>InvalidName</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>#"$%&amp;$</t>
+  </si>
+  <si>
+    <t>d5a6r8k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,15 +164,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -470,4 +524,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="SubscribeNewsletter" sheetId="2" r:id="rId2"/>
+    <sheet name="Contact" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Valid Username</t>
   </si>
@@ -109,6 +110,45 @@
   </si>
   <si>
     <t>d5a6r8k</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>Marko</t>
+  </si>
+  <si>
+    <t>Markovic</t>
+  </si>
+  <si>
+    <t>marko@gmail.com</t>
+  </si>
+  <si>
+    <t>Hello!</t>
+  </si>
+  <si>
+    <t>markogmail.com</t>
+  </si>
+  <si>
+    <t>marko@gmail</t>
+  </si>
+  <si>
+    <t>marko@gmail.c</t>
+  </si>
+  <si>
+    <t>Invalid Email with spelling mistake</t>
+  </si>
+  <si>
+    <t>marko@gamil.com</t>
   </si>
 </sst>
 </file>
@@ -530,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -604,4 +644,82 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>